--- a/data/hotels_by_city/Dallas/Dallas_shard_19.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="772">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sharlene K</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>This motel is very run down!  Not sure if some of the first floor rooms were being remodeled, but if my room was an example of what is there, I would not stay here again.  When we went down from breakfast more than 30 minutes before it closed, all the hot food was gone and there was no one there so we assumed there would be no more food coming out.  Highly disappointed.  The rooms were clean enough that I did not walk out instantly and they let me use their breakfast area in the afternoon but that is about all the good things I have to say about this motel.More</t>
   </si>
   <si>
+    <t>kristinf84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r539745754-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I love this hotel!  The front desk staff are very friendly and accommodating.  This was my second stay at this hotel.  I had adequate parking to accommodate my tour bus.  There was plenty of commercial vehicle parking.  The restaurants were within walking distance.   The room was very clean and comfortable!  I will definitely choose the Baymont Inn and recommend this hotel to my coworkers the next time we spend the night in Terrell, TX!More</t>
   </si>
   <si>
+    <t>Ss09181973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r572479984-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Alan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r567151066-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>J9920FNashleyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r555263508-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>The heater did not work in the room.  The front desk did put us in another room.  I wanted to pay cash, but the front desk charged my card anyway.  They never asked me if I wanted to do another type of payment.More</t>
   </si>
   <si>
+    <t>Link Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r553819477-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>tracygB594RV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r550315678-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>12/07/2017</t>
   </si>
   <si>
+    <t>Aprilzah21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r543803100-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>This was the worst experience at a hotel I've ever had. Door wouldn't close when leaving, was given some excuse about it being cold. Moved to.another room where the bathroom was falling apart. Awful.More</t>
   </si>
   <si>
+    <t>kylek2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r537531965-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>Floors were not clean daily. No guide for the tv service. I was unable to no what station I was watching. The coffee machine  was broken, I  received a different one. But the new one was filthy. More</t>
   </si>
   <si>
+    <t>310rogerf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r535703127-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>roaches would not even stay there. will not be a returning visitor ever again. one bath room had black mold in the bathroom.More</t>
   </si>
   <si>
+    <t>yvonnek146</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r533785870-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>10/17/2017</t>
   </si>
   <si>
+    <t>978austinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r530781874-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>For the money I paid for the king room, I expected better. Check-in was terrible as the man behind the counter was very dour and could barely speak English, never smiled and was kind of rude. The room was dated and looked as if there was a permanent resident next door. The shower looked as if there was repair work on the sheetrock walls and white sheetrock was used in the repairs instead of green rock. You could see mold forming on the bare, unpainted sheetrock. This type of shoddy maintenance work and rude behavior is what you would expect from a rent by the hour no tell motel rather than an $80 + a night Wyndham hotel. I will not stay nor recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>rondac367</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r530028496-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>10/04/2017</t>
   </si>
   <si>
+    <t>Austin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r529991359-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>It would be nice to walk into a Wyndham affiliate hotel and have a great breakfast like Best Western or Quality Inn.  Eggs, bacon, sausage and waffles. Instead of rock hard biscuits and bagels. Never have sausage and bacon. More</t>
   </si>
   <si>
+    <t>joeR8686OV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r524662763-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>TV didn't work and they wouldn't switch me rooms, even though I just checked in hour before. So I went to get my money back and rude woman at counter tried charging me, till she got hold of mngr.More</t>
   </si>
   <si>
+    <t>Angelena L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r517125752-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -513,6 +561,9 @@
     <t>Responded August 26, 2017</t>
   </si>
   <si>
+    <t>kayd417</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r498973739-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -531,6 +582,9 @@
     <t>Responded July 8, 2017</t>
   </si>
   <si>
+    <t>Leslie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r494698788-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -546,6 +600,9 @@
     <t>Responded June 22, 2017</t>
   </si>
   <si>
+    <t>L1375TKrobinb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r490754344-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -564,12 +621,18 @@
     <t>Responded June 7, 2017</t>
   </si>
   <si>
+    <t>J3671MFmichelled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r490699083-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
     <t>490699083</t>
   </si>
   <si>
+    <t>koryl798</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r489348624-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -597,6 +660,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>garysN1534DS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r464493581-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -615,6 +681,9 @@
     <t>Responded March 5, 2017</t>
   </si>
   <si>
+    <t>Dave M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r464477838-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -639,6 +708,9 @@
     <t>Our stay on the night of March 3,2017 was yuck!    The toilet rocked a lot when you sat on it.  The fridge was not even cold. The phone receiver, tv remote had probably never been cleaned with disenfectant wipes. YUCK!    There was a pencil eraser that was by the wall inside, and you could tell the room had really not been cleaned....just " hit at"The person at the front desk said they had a complimentary breakfast.   What a joke!,,,If you plan on spending hard earned money for a place to stay overnight this is NOT the place.More</t>
   </si>
   <si>
+    <t>caseym396</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r459257408-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -654,6 +726,9 @@
     <t>Responded February 16, 2017</t>
   </si>
   <si>
+    <t>leona914</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r451255963-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -708,6 +783,9 @@
     <t>We sold our house earlier than expected and had to stay until new home ready! Having a very good experience!More</t>
   </si>
   <si>
+    <t>lynnfm2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r443173719-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -723,6 +801,9 @@
     <t>Responded December 11, 2016</t>
   </si>
   <si>
+    <t>kelli920</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r425179217-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -747,6 +828,9 @@
     <t>We arrived and went up to our room and as we got to the door we noticed a broken window, once inside the sheets were dirty and stained so we picked up our things and went down to request another room! We were given another room in which sheets were better but that's about all that was better!  Every electricity outlet was falling out of the wall, both rooms had wall repair which was unpainted and the bathroom and shower were dirty!  Toilet lever was loose and shower held water and took forever to drain!The only reason we did not change hotels was because there was not another one available that could accommodate the 4 of us on short notice!  We have stayed at this location before and clearly the owners are not interested in taking care of this property!  We will NOT be back next year! More</t>
   </si>
   <si>
+    <t>102shannat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r422766414-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -762,6 +846,9 @@
     <t>Responded September 29, 2016</t>
   </si>
   <si>
+    <t>K2249DLwilliamc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r421508701-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -777,6 +864,9 @@
     <t>Responded September 27, 2016</t>
   </si>
   <si>
+    <t>H3149JEthomass</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r416512655-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -801,6 +891,9 @@
     <t>When you walk into a hotel room, and it smells like cat piss, prepare yourself for a horrible stay. Starting with the cat piss smell, moving on to the musty, damp floor, the AC unit that ran for 30 seconds, and was off for 15 minutes, the low level lighting at the vanity and the musty damp bed, this was one of the worst hotel stays in my 30 years of work related travel. Terribly uncomfortable.More</t>
   </si>
   <si>
+    <t>J.D. S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r416339218-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -846,6 +939,9 @@
     <t>The bathroom was the most disgusting and filthy thing I have ever seen. The tub had a HUGE stain in the bottom of it. The smell that knocked you over when you opened the door to the room was a mixture of dirty sweaty socks and mildew. Worst night ever spent in a hotel. Will definitely never stay here again.More</t>
   </si>
   <si>
+    <t>Amy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r407109656-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -864,6 +960,9 @@
     <t>The outside had trash everywhere. Looked like someone permanently lived in a few rooms. The room was clean but old. More</t>
   </si>
   <si>
+    <t>jeanp732</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r387989306-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -891,6 +990,9 @@
     <t>Our room was terrific, spacious, air conditioning worked, television had enough volume, loved the pool which was clean and easily accessible.  Our complaint was with the food area which was full of flies and the attendant was not keeping the food area tidy and wiped down.More</t>
   </si>
   <si>
+    <t>James A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r387200546-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1002,9 @@
     <t>06/28/2016</t>
   </si>
   <si>
+    <t>Denise E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r387123398-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>The flies in the lobby were a bit off- putting.  The flies were also bad at the complementary breakfast.  Had to skip it. The room was clean but could use an update.More</t>
   </si>
   <si>
+    <t>Gerald h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r385889140-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1047,9 @@
     <t>Roach in the bathroom, holes in the sheets. Overall it was not a good place to stay.Coffee maker in the room was dirty. Breakfast was not worth eating. Eggs, biscuits, even coffee were terrible. Don't stay hereBetter motels to stay than this oneMore</t>
   </si>
   <si>
+    <t>JMM06_17_2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r384693776-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1065,9 @@
     <t>Responded June 24, 2016</t>
   </si>
   <si>
+    <t>kathykathy104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r382321335-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1083,9 @@
     <t>Responded June 20, 2016</t>
   </si>
   <si>
+    <t>Bobby S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r378331761-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1107,9 @@
     <t>For starters it is an exterior entrance hotel.  Your room door opens to the outside. Pros: Bathroom was clean and staff was friendly. Cons: Pull out sofa bed was awful at best and room smelled like it used to be a smoking room. Sheets were "sticky" according to my children. However for $90 and a single nights stay we didn't die! More</t>
   </si>
   <si>
+    <t>aramies2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r375430339-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1119,9 @@
     <t>05/22/2016</t>
   </si>
   <si>
+    <t>tgarcia2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r370450876-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1131,9 @@
     <t>05/05/2016</t>
   </si>
   <si>
+    <t>Kalli N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r369229512-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1152,9 @@
     <t>The man working was as rude as can be. We had 3 rooms booked. One room the key reader was broken so we could not get in. Instead of coming to check it out the man just kept giving us new keys to try even when we told him it wouldn't light up at all. 2 of the rooms has an extra step to get into the room because it was not level. While shuffling rooms the man kept trying to put us in rooms that reeked of smoke and got agitated when we asked for a different room. The bathroom door in our room would not close and the towels were stained in ALL 3 of our rooms. You only get 2 towels and a wash rag. All were disgusting. The front door to our room had a huge gap at the bottom where the air and rain just came right in. You get 4 pillows but each pillow was the size of HALF a normal pillow. There were several rooms with permanent decoration on the outside. Some people actually live here!? There was no coffee half the time and the breakfast was worse than a gas station. One room a few down from ours just reeked of marijuana smoke the whole 3 days we were there. The man working did not seem to care. While we were booking the man on the phone kept saying they were queen...The man working was as rude as can be. We had 3 rooms booked. One room the key reader was broken so we could not get in. Instead of coming to check it out the man just kept giving us new keys to try even when we told him it wouldn't light up at all. 2 of the rooms has an extra step to get into the room because it was not level. While shuffling rooms the man kept trying to put us in rooms that reeked of smoke and got agitated when we asked for a different room. The bathroom door in our room would not close and the towels were stained in ALL 3 of our rooms. You only get 2 towels and a wash rag. All were disgusting. The front door to our room had a huge gap at the bottom where the air and rain just came right in. You get 4 pillows but each pillow was the size of HALF a normal pillow. There were several rooms with permanent decoration on the outside. Some people actually live here!? There was no coffee half the time and the breakfast was worse than a gas station. One room a few down from ours just reeked of marijuana smoke the whole 3 days we were there. The man working did not seem to care. While we were booking the man on the phone kept saying they were queen beds but upon arrival they were obviously doubles. Last thing. Be aware this is a MOTEL not a hotel. In a not great part of a tiny town. Everywhere else we went in Terrell had lovely people and it seems like a good little town. Just DONT STAY HERE. We never will again.More</t>
   </si>
   <si>
+    <t>P7188QFwilliamd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r367880275-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1173,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>G-mama2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r367452262-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1185,9 @@
     <t>04/25/2016</t>
   </si>
   <si>
+    <t>Brenda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r366093442-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1197,9 @@
     <t>04/21/2016</t>
   </si>
   <si>
+    <t>485soniaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r364024873-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1215,9 @@
     <t xml:space="preserve">There were several bugs in the room and the hot breakfast was misleading there was no meat at all. I will never stay there again very disappointed since it is owned by wyndam. </t>
   </si>
   <si>
+    <t>Jane W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r361813109-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1227,9 @@
     <t>04/05/2016</t>
   </si>
   <si>
+    <t>allend364</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r361551660-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1242,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>saragT2463MU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r359781685-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1260,9 @@
     <t>The room was spacious and clean. The location was nice for getting to other areas. However, I really hate it when the air conditioner/ heating unit is below a window with curtains that blow out and open up when the unit is on, particularly when people walking by can see right in the room. The strong wind from a passing storm blew a breeze through cracks in the door frame. The free wireless connection was extremely slow. And last complaint, the electrical outlets are very old and not tight enough to hold a plug in place for charging phones, computers, or camera batteries.</t>
   </si>
   <si>
+    <t>sheridab2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r355329574-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1272,9 @@
     <t>03/14/2016</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r341694804-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1293,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Sandra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r338977641-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1311,9 @@
     <t>They have no computer or printers you can use theres if their not busy and when someone comes in you have to get off wright in the middle of what you are doing</t>
   </si>
   <si>
+    <t>iretad2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r329283724-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1326,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>jodier261</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r326249193-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1338,9 @@
     <t>11/12/2015</t>
   </si>
   <si>
+    <t>Lu Ann C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r325612225-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1362,9 @@
     <t>The room was sufficient for my needs. The mattress had a plastic mattress pad which crinkled when you moved.  Room was clean. Bathroom nice. The only problem was that construction workers stay there.  I call it live there. They stand outside and listen to their music and drink beer. Since a lot of illegals work construction , it is my guess they are illegals. I called the desk the first night to ask that they turn down their music, it got louder. The next night I went to the desk and told the employee that it makes me nervous for a group of men, possibly illegals, standing for several hours in the parking lot, drinking beer, and watching everyone.  I would not stay in this motel again.  Also , the first day , the gravy for the biscuits had gone bad.  I watched them put more food out.  I  have a food service certification.  They did not wear gloves to handle the food, and the manager put his hands in the cups while putting them out.  This was not a good experience for me.More</t>
   </si>
   <si>
+    <t>whisperingsage1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r324296441-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1380,9 @@
     <t>Within the first hour of checking in, I killed 3 cockroaches. Over the night and next morning, we killed 5 more, and saved most of them on a paper towel to show to office staff, hoping they would take a little off the $100 a night price. (we rented two rooms, for 3 people and a cat).Nope, no breaks. So the best I can do is warn others.   Outside of the cockroaches, it did otherwise appear very clean, in fact the towels were folded into pretty origami shapes. Our mom however had a dirty tub in her room.</t>
   </si>
   <si>
+    <t>W2634ROmichaelr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r323870522-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1392,9 @@
     <t>11/02/2015</t>
   </si>
   <si>
+    <t>TerrellTx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r318755865-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1410,9 @@
     <t>Wright By I 20 Exit 501.Nice New Lobby and Breakfast room, Great Room, Good Breakfast and coffee.Frandly Staff,Mr Raj help me lot for my staying. Please go head  and enjoy your stay their ,Walking restaurant subway,</t>
   </si>
   <si>
+    <t>dennislG792AH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r317045941-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1422,9 @@
     <t>10/08/2015</t>
   </si>
   <si>
+    <t>gloriah590</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r316871269-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1440,9 @@
     <t>The room was dirty.  Bed sheets were also dirty.  The shower wall had a hole in it.  I booked two nights but only stayed one.  Will never stay there again.</t>
   </si>
   <si>
+    <t>troyc986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r316691814-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1458,9 @@
     <t>The room smelled bad and the bed spreads needed washed. We had absolutely no hot water and nothing was done about when we told the front desk</t>
   </si>
   <si>
+    <t>nikkin982</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r314027966-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1482,9 @@
     <t>The entire room and lobby smelled like terrible Indian food and the customer service from the front desk was non-existent. We only decided to stay here because it was last-minute and we were exhausted. We originally thought this was a best western because of the sign that was on the highway but they apparently never took it down after Baymont bought this hotel. The man at the front desk was very rude when he told us this and also told us that if we wanted a military discount, it would cost us more than the rate he quoted us. I know that the government pays per diem rates and that there is a flat fee for military, but don't disrespect us by saying it will cost us more and just tell us that you do not offer a military discount. The continental breakfast was disappointing as well.More</t>
   </si>
   <si>
+    <t>641rhondak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r311988211-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1494,9 @@
     <t>09/20/2015</t>
   </si>
   <si>
+    <t>wtaylor2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r307825432-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1506,9 @@
     <t>09/07/2015</t>
   </si>
   <si>
+    <t>376keishaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r306934161-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1527,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Ashley C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r303721238-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1545,9 @@
     <t>For starters, the AC took FOREVER to cool off, and it still was not quite cold enough to sleep well. Also, the bed was VERY uncomfortable. It felt like we were sleeping on hard springs the entire time. The next morning we had to get ready with minimal lighting because the light outside the bathroom went out and would not turn back on. Every now and then, it would flicker, but never would turn on. The mattress cover was pretty gross. The overall room could have been cleaner, but I guess that is what we should have expected from a cheaper motel. Lesson learned for sure!</t>
   </si>
   <si>
+    <t>Kevin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r295818561-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1557,9 @@
     <t>08/04/2015</t>
   </si>
   <si>
+    <t>johnsE1159UR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r293399990-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1572,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>937percyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r287174425-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1584,9 @@
     <t>07/09/2015</t>
   </si>
   <si>
+    <t>165williamo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r282599927-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +1597,9 @@
   </si>
   <si>
     <t>June 2015</t>
+  </si>
+  <si>
+    <t>C2797GYdebbied</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r282462747-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
@@ -1415,6 +1628,9 @@
 When I returned - quite late- (about 10:30 p.m.), I opened the door and was...I walked into the hotel lobby and it looked like a war zone with saw dust all over the floor and tables.  Even the counter to check in was swarming with flies.  There was no carpet on the floor and there were tables stacked to the side with no thought of even trying to make things look nice for guests.I questioned what breakfast would be like with all the flies and dust - and I tried to experience it the next morning, but it was deplorable.  Flies everywhere.  I went to my room after check-in trying to be understanding that there was construction going on.  As soon as I opened the door to my room, which was right above the lobby, I was met with several flies coming at my face, arms and hands. I had driver four hours to attend a concert in Terrell, TX, and because I was so tired, I thought I would try to rest for about an hour before the concert at the Performing Arts Center.  Instead, I was literally all over the hotel room trying to swat flies away from my face.  It was disgusting.  There were mosquitos and cockroaches throughout the room and I finally went downstairs to ask the manager if there was any way they could spray my room while I was at the concert.When I returned - quite late- (about 10:30 p.m.), I opened the door and was overcome with the smell of spray, but realized it HAD to be done in order to get rid of the pests.  It did not seem that the spraying did any good - only stirred them up more.I went downstairs and the manager was no longer on duty.  There was a young girl at the desk and she had no idea what I was talking about and kept letting me know the manager was unavailable.  I either had to go back to the room to endure the flies, cockroaches, and mosquitos or I would need to sleep in my car.  It was very late and I did not want to pack up everything and go out into the night to try and find another place to stay.  I tried to let the young lady know I was very unhappy with the room, but she looked at me with a blank stare and I don't believe she understood a word I said. I went down early Sunday morning to let the manager know it was not a restful night as I continued to ward off pests even as I tried to sleep.  It was disgusting as flies were on my face most of the night.  They must have come up from downstairs as the main door to the room was never opened but to slither through quickly so as not to let more of the pests in.I went into the small dining area and asked the manager if he really expected people to sit downMore</t>
   </si>
   <si>
+    <t>134robinr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r281632520-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1424,6 +1640,9 @@
     <t>06/20/2015</t>
   </si>
   <si>
+    <t>stormchaser1569</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r268941299-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1655,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Charlie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r267334924-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1667,9 @@
     <t>04/22/2015</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r260239588-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1457,6 +1682,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Reba C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r259281855-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1700,9 @@
     <t xml:space="preserve">Staff was very professional, great vibe, happy smile, and went the extra mile, when I inquired about restaurants in the area. </t>
   </si>
   <si>
+    <t>Keith K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r252664363-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1715,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>stefan0133</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r249763621-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1499,6 +1733,9 @@
     <t>Reception unfriendly, door to the room did not open, room was smelly, next morning the coffee machine was not plugged in and nobody really cared. Interestin also that we received 2 confirmations one under Best Western and another one under Baymont - puzzling!!</t>
   </si>
   <si>
+    <t>Z1187VSbarbaras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r242654639-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +1754,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r231750579-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1775,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Kevin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r228401424-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1550,6 +1793,9 @@
     <t>Helpful staff.  Dated, but clean.  Decent hot breakfast.  Easy access to the interstate.  Stayed here to attend a concert in Dallas.  Easy trip in and out of Dallas.  Had a slight problem access the wifi, however, the staff make sure I was able to accomplish what I needed to do.  Very pleased with the experience.</t>
   </si>
   <si>
+    <t>Ayodeji O S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r226573044-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1814,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>TravellingAZTeacher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r212341029-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1586,6 +1835,9 @@
     <t>Booked this online as the first stop on our Florida trip with the grandkids.  Check in was fine.  However, on the way to the room, we noticed the concrete walkways were dirty and stained.  The room was typical oversized BW room.  However when we turned the light on, nothing happened.  No light bulb in the socket of the lamp.  Carpets were not as clean as we have seen in other BW properties.  Also, if I recall correctly, there was no catch to hold the curtains out of the AC.  In the morning, the breakfast nook was really just a nook.  Maybe six tables in a space ten feet wide.  You could not move without hitting someone else.  We will not be back.Stayed June 13, 2014.More</t>
   </si>
   <si>
+    <t>Toni N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r209097430-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1604,6 +1856,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>ddbaby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r208179503-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1877,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Stacey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r208135619-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1895,9 @@
     <t>I had a great experience at the Best Western in Terrell, Texas. The staff was very nice and always kept a smile. The room was very neat and extremely clean which made for a relaxing night for my family.</t>
   </si>
   <si>
+    <t>Derl J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r200297121-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1652,6 +1913,9 @@
     <t>This Best Western has the worst beds of any Best Western I have stayed in.  I would not recommend this hotel.  Breakfast was also below par with bisucuits being hard and dining area is very small and crowded.</t>
   </si>
   <si>
+    <t>anniebelle1946</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r198860895-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1934,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>DConno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r196062557-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1688,6 +1955,9 @@
     <t>The area was packed due to the swap meet/flea market in a neighboring town and most of the area hotels were either booked or going only as low as $110 a night which was out of our budgeted range of &lt;$100. The Best Western was filling up but offered us a room for $79.09 a night which was a great deal lower than everywhere else. After having stayed at the motel from hell in Tallahassee, FL it was a great change of pace. The room was clean and orderly and we actually got a good nights sleep which after 14 hours on the road was important. There was a minor hiccup with the hot water heater on a particularly cold morning but staff was attending to it and I can hardly consider it their fault.More</t>
   </si>
   <si>
+    <t>chacochaos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r190955835-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1706,6 +1976,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Patrick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r189957549-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1721,6 +1994,9 @@
     <t>The lack of maintence of this hotel is a disgrace to the Best Western name, This is why some reviews of this chain claim that it is a hit or miss on what type of room you may get. Some may be excellent and others the owners just do the minimum that they must to maintain  the Best western name. This would be one of those motel owners.</t>
   </si>
   <si>
+    <t>tswife79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r186881201-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1742,6 +2018,9 @@
     <t>We would never stay at this hotel again.  Sheets had holes in them.  Not enough hand towels and washclothes for all three of us.  But the worst part was the breakfast.  I believe that they purchased poor quality off brand products.  Waffles &amp; apple juice tasted sour, to the point they were not eatable.  Eggs appeared to be re heated.  Gravy for biscuits tasted like liver.  The only jelly available was grape and apple (the cheapest)  the knives were tiny plastic ones (nothing wrong with plastic) There were no forks available and we were some of the earlier ones to get there.  Sodas were off brand also.  Needless to say we left without eating anything other than biscuit and water and got real breakfast down the road and did not even walk in there the next morning.More</t>
   </si>
   <si>
+    <t>Jerome B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r186302106-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1760,6 +2039,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Dan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r186219209-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1775,6 +2057,9 @@
     <t>Great hotel , Good Staff , Great Room , Good Breakfast , and Great jacuzzi! After Driving 11 hours I always look for a good Jacuzzi and with the exception of terrel Texas and Franklin Tn , Best western usally has one !</t>
   </si>
   <si>
+    <t>Gerald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r184441665-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1790,6 +2075,9 @@
     <t>Came down for First Monday Trade Days wont stay in Canton Price triples for that week we stay in Terrell Tx at Best Western price is good clean hotel comfortable beds, easy to get to no highway noise plent of resturants outlet mall across the road and Canton is only 25 miles down the road. All ready booked my room for next year friendly staff and they have Breakfast looked and smelt good.</t>
   </si>
   <si>
+    <t>Robert P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r176702828-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1808,6 +2096,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>LSJ6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r175348070-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1829,6 +2120,9 @@
     <t>We arrived around 8:00 on a week night with no reservation. Front desk staff was friendly. We had a carload of suitcases and other purchases so being  able to park right in front of room was nice to unload everything. The room was cool and smelled pleasant when we arrived. Plenty of lighting with good Internet service. Flat screen TV with HBO channels..The bed was large with a soft mattress, sheets a bit thin but clean. Towels were fine.Bathroom and room were clean but not so sure about carpet. Plenty of hot water and Microwave and fridge worked well. Ice machine outside around the corner had plenty of ice...and little coffee maker made a nice cup hof java after a long day. The air conditioner was the under-the- window type but kept room temperature comfortable.Breakfast was okay. There were biscuits &amp; gravy, mediocre scrambled eggs and instant oatmeal. The  2ilk was nice and cold. BW Texas waffles were good. It would have been nice to have some fruit and yogurt but an adequate breakfast. Breakfast room is small but we were the only people there so no problem with the space.Over all this hotel met our needs for late arrival and one night stay at a reasonable price.More</t>
   </si>
   <si>
+    <t>Jan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r166666194-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1847,6 +2141,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Cgrant5356</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r152002652-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1863,6 +2160,9 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>yyyy1s</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r129296983-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
@@ -1892,6 +2192,9 @@
 There are light switches that do not work, or at least control a fixture that is inoperative, and the lighting available is dim at it's brightest. The linen is thin, the blankets are thin and make you wonder why they are there. The color schemes in the rooms are dark and need to be lighter and get linen that is more useful than decorative in appearance. The knob on the top of the ice bucket was broken off and stuck back in place. Can't this be replaced???? There were dark brown stains on towels and wash cloths which...The rates are a bit much for what you get, and that is a generous appraisal. Let's start with the bathroom. The commodes seem like they came from a day care for toddlers; just hope that you don't have knee problems! If you like hot water with your shower you need to go elsewhere. In our room the shower got lukewarm in the shower but the sink gave hot water. That is a new twist on water delivery in a bathroom. The a//c was off when we got to the room, and the room was hot, stuffy and stale smelling. The a/c unit is on front wall and the curtains are long enough that the cool air is trapped in the curtains as they billow out and the cool air you were expecting in the whole room remains mostly in the curtains. There are light switches that do not work, or at least control a fixture that is inoperative, and the lighting available is dim at it's brightest. The linen is thin, the blankets are thin and make you wonder why they are there. The color schemes in the rooms are dark and need to be lighter and get linen that is more useful than decorative in appearance. The knob on the top of the ice bucket was broken off and stuck back in place. Can't this be replaced???? There were dark brown stains on towels and wash cloths which made us wonder what was going on.The breakfast that is advertised on the web site is a joke. This morning there were some little, individually wrapped cinnamon buns, hand-filled baggies with two slices of bread in each one, some bagels in baggies and microwave pancakes. The syrup for the pancakes was terrible, and was in a bottle with based the name of an Arkansas-based grocery and super store retailer. The coffe was not brewed, but dispensed from a Nescafe dispenser. Instant coffee is the pits! The fruit in the breakfast room was old, bruised and better suited to feeding critters.The breakfast room was small, cramped and with four large tables in the room there was very little space to move around. The walls were dirty and the ceiliing had light fixtures that were sagging and not fully seated. The TV was missing (NOT a deal breaker but goes to lack of attention to detail) with the coax cable and mounting bracket staring at you.This was an unsatisfying experience and I cannot believe that Best Western condones this type of shoddiness in a facility with their name and corporate backing attached to a facility. I would not recommend this facility except as a last resort.More</t>
   </si>
   <si>
+    <t>MickeS_fi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r122191994-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1910,6 +2213,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>Raptortx1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r119298013-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1931,6 +2237,9 @@
     <t>Stayed one night at this hotel with my wife. Staff was very friendly and check-in was quick. Room with king-sized bed was out-dated and in need of a renovation. Linens and towels are due for a replacement as the sheets were very thin and visibly worn in places along with a noticible brown stain on a hand towel. The shower curtain rod was semi-attached in the bathroom and drooping because of the brackets. Bathroom corners also needed a good cleaning to remove accumulated "debris". Breakfast offerred is very simple and plain with breads, eggs, biscuits, gravy, cereal, coffee and juice. I had biscuits and gravy but could not eat one of them due to it being so hard. The a/c blew cold air and kept us comfortable and the room did have a small microwave and mini-fridge. This isn't a terrible property but it is definitely showing its age. It would not be first choice when staying in the Terrell area again.More</t>
   </si>
   <si>
+    <t>bjwalter555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r115012879-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1952,6 +2261,9 @@
     <t>We arrived later. We used our points for a free room. All rooms are outside doors. When we arrived at our room, the air conditioner was turned completely off. Temp was over 100. There was a very strong air freshener odor. As we turned on the air conditioner, we realized why. The air conditioner had a very strong moldy, musty smell. We kept the door open for 2 hours trying to air out, did not work. Pool was inconveniently across the parking lot. Upon check out, Mr. Patel told me he would give me 250 free bonus points if I wrote him a good review. Sorry, now I wonder about the good reviews on this hotel. It is an older hotel. I will not be back to this hotel. We did not eat the breakfast, did not even look at it, so I cannot offer any insight here.More</t>
   </si>
   <si>
+    <t>schilcoat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r103330582-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1970,6 +2282,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>ducmot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r73187482-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1988,6 +2303,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>The_Horror</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r24320451-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2004,6 +2322,9 @@
   </si>
   <si>
     <t>January 2009</t>
+  </si>
+  <si>
+    <t>living&amp;learnin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d259600-r6174277-Baymont_Inn_Suites_Terrell-Terrell_Texas.html</t>
@@ -2529,43 +2850,47 @@
       <c r="A2" t="n">
         <v>41255</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>119726</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2589,50 +2914,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41255</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>119727</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2654,56 +2983,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41255</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>119728</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2727,35 +3060,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41255</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>596</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2763,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2787,51 +3124,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41255</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>119729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2853,54 +3191,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41255</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>119730</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2922,56 +3264,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41255</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>119731</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2993,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -3012,35 +3358,35 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -3062,56 +3408,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41255</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>119732</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3133,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -3152,35 +3502,35 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3202,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -3221,37 +3571,37 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3273,56 +3623,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41255</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>119733</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3344,56 +3698,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41255</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>119734</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3415,41 +3773,45 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41255</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>119735</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3457,10 +3819,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3481,51 +3843,52 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41255</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>119736</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
         <v>133</v>
-      </c>
-      <c r="O16" t="s">
-        <v>123</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3547,54 +3910,58 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41255</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>119737</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3616,56 +3983,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X17" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41255</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>119738</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
         <v>133</v>
-      </c>
-      <c r="O18" t="s">
-        <v>123</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3687,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X18" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -3706,37 +4077,37 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>145</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>133</v>
-      </c>
-      <c r="O19" t="s">
-        <v>123</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3758,56 +4129,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X19" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y19" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41255</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>119739</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3829,54 +4204,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X20" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41255</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>119740</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3898,54 +4277,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41255</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>119741</v>
+      </c>
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3967,54 +4350,58 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X22" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41255</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>36558</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4036,54 +4423,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="X23" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41255</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>119742</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4105,54 +4496,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="X24" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41255</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>119743</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -4174,54 +4569,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="X25" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Y25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41255</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>119744</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4243,54 +4642,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="X26" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41255</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>119740</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4312,54 +4715,58 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="X27" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Y27" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41255</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>119745</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4381,56 +4788,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="X28" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41255</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4442,54 +4853,58 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="X29" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41255</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>119746</v>
+      </c>
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4511,56 +4926,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X30" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y30" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41255</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>119747</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -4582,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X31" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y31" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
@@ -4601,37 +5020,37 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4653,54 +5072,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="X32" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41255</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>119748</v>
+      </c>
+      <c r="C33" t="s">
+        <v>255</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4722,56 +5145,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X33" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41255</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>119749</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4795,48 +5222,52 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41255</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>119750</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4858,54 +5289,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X35" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41255</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>119751</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4927,56 +5362,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="X36" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41255</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>119752</v>
+      </c>
+      <c r="C37" t="s">
+        <v>282</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4988,56 +5427,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="X37" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Y37" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41255</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>6482</v>
+      </c>
+      <c r="C38" t="s">
+        <v>291</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="J38" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5049,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="X38" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="Y38" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
@@ -5068,37 +5511,37 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -5120,56 +5563,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="X39" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41255</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1682</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5191,56 +5638,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="X40" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="Y40" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41255</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>119753</v>
+      </c>
+      <c r="C41" t="s">
+        <v>314</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="J41" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="O41" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5262,54 +5713,58 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="X41" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="Y41" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41255</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>6838</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="O42" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5331,56 +5786,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="X42" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="Y42" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41255</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>119754</v>
+      </c>
+      <c r="C43" t="s">
+        <v>328</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J43" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="K43" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5402,47 +5861,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="X43" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="Y43" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41255</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>119755</v>
+      </c>
+      <c r="C44" t="s">
+        <v>334</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J44" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -5459,54 +5922,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="X44" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="Y44" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41255</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>119756</v>
+      </c>
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5528,54 +5995,58 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="X45" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Y45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41255</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>119757</v>
+      </c>
+      <c r="C46" t="s">
+        <v>349</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="J46" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5597,56 +6068,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X46" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y46" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41255</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>18962</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5668,54 +6143,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X47" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y47" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41255</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>119758</v>
+      </c>
+      <c r="C48" t="s">
+        <v>363</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="J48" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5737,54 +6216,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X48" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y48" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41255</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>101116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5806,56 +6289,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X49" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y49" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41255</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>119759</v>
+      </c>
+      <c r="C50" t="s">
+        <v>371</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5869,50 +6356,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41255</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>119760</v>
+      </c>
+      <c r="C51" t="s">
+        <v>378</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="J51" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5936,35 +6427,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41255</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>119761</v>
+      </c>
+      <c r="C52" t="s">
+        <v>385</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="J52" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5972,10 +6467,10 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="O52" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5996,36 +6491,37 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41255</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>12433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>389</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="J53" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -6033,10 +6529,10 @@
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6057,51 +6553,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41255</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>119762</v>
+      </c>
+      <c r="C54" t="s">
+        <v>393</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6125,48 +6622,52 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41255</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>48685</v>
+      </c>
+      <c r="C55" t="s">
+        <v>399</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="O55" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -6188,41 +6689,45 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="X55" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Y55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41255</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>119763</v>
+      </c>
+      <c r="C56" t="s">
+        <v>403</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="J56" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -6230,10 +6735,10 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="O56" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6254,51 +6759,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41255</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>119764</v>
+      </c>
+      <c r="C57" t="s">
+        <v>408</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="J57" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="K57" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6322,35 +6828,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41255</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>10034</v>
+      </c>
+      <c r="C58" t="s">
+        <v>414</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="J58" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -6358,10 +6868,10 @@
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="O58" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6382,51 +6892,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41255</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>33890</v>
+      </c>
+      <c r="C59" t="s">
+        <v>418</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="J59" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="K59" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6450,50 +6961,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41255</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>34139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>425</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="J60" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="K60" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6517,35 +7032,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41255</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>119765</v>
+      </c>
+      <c r="C61" t="s">
+        <v>431</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="J61" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6553,10 +7072,10 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="O61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6569,36 +7088,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41255</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>119766</v>
+      </c>
+      <c r="C62" t="s">
+        <v>436</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J62" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6606,10 +7126,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6630,51 +7150,52 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41255</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>119767</v>
+      </c>
+      <c r="C63" t="s">
+        <v>440</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="J63" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K63" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L63" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O63" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6694,50 +7215,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41255</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>119768</v>
+      </c>
+      <c r="C64" t="s">
+        <v>448</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="J64" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="K64" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="L64" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6757,35 +7282,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41255</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>119769</v>
+      </c>
+      <c r="C65" t="s">
+        <v>454</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="J65" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6793,10 +7322,10 @@
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6817,51 +7346,52 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41255</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>119770</v>
+      </c>
+      <c r="C66" t="s">
+        <v>458</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="J66" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="K66" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="L66" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -6881,35 +7411,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41255</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>119771</v>
+      </c>
+      <c r="C67" t="s">
+        <v>464</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="J67" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6917,10 +7451,10 @@
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6941,51 +7475,52 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41255</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>119772</v>
+      </c>
+      <c r="C68" t="s">
+        <v>468</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="J68" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="K68" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="L68" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O68" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7009,50 +7544,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41255</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>119773</v>
+      </c>
+      <c r="C69" t="s">
+        <v>474</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="J69" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="K69" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="L69" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="O69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7076,50 +7615,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41255</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>119774</v>
+      </c>
+      <c r="C70" t="s">
+        <v>480</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="K70" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="L70" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -7143,48 +7686,52 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41255</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>119775</v>
+      </c>
+      <c r="C71" t="s">
+        <v>488</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="J71" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7208,35 +7755,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41255</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>119776</v>
+      </c>
+      <c r="C72" t="s">
+        <v>492</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="J72" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -7244,10 +7795,10 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -7268,51 +7819,52 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41255</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>119777</v>
+      </c>
+      <c r="C73" t="s">
+        <v>496</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="J73" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="K73" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="L73" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="O73" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7336,50 +7888,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41255</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>14385</v>
+      </c>
+      <c r="C74" t="s">
+        <v>503</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="J74" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="K74" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="L74" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7395,35 +7951,39 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41255</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>14502</v>
+      </c>
+      <c r="C75" t="s">
+        <v>509</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="J75" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7431,10 +7991,10 @@
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="O75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7455,36 +8015,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41255</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>119778</v>
+      </c>
+      <c r="C76" t="s">
+        <v>513</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7492,10 +8053,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="O76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -7516,36 +8077,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41255</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>119779</v>
+      </c>
+      <c r="C77" t="s">
+        <v>518</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="J77" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7553,10 +8115,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="O77" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7577,36 +8139,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>41255</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>119780</v>
+      </c>
+      <c r="C78" t="s">
+        <v>522</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="J78" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7614,10 +8177,10 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7638,51 +8201,52 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>41255</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>119781</v>
+      </c>
+      <c r="C79" t="s">
+        <v>527</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="J79" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="K79" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="L79" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="O79" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7706,35 +8270,39 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>41255</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>119782</v>
+      </c>
+      <c r="C80" t="s">
+        <v>534</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="J80" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7742,10 +8310,10 @@
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="O80" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7766,36 +8334,37 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>41255</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>119783</v>
+      </c>
+      <c r="C81" t="s">
+        <v>538</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="J81" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7803,10 +8372,10 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="O81" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7827,36 +8396,37 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>41255</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>95568</v>
+      </c>
+      <c r="C82" t="s">
+        <v>543</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="J82" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7864,10 +8434,10 @@
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7888,36 +8458,37 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>41255</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C83" t="s">
+        <v>547</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="J83" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7925,10 +8496,10 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="O83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7949,51 +8520,52 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>41255</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>119784</v>
+      </c>
+      <c r="C84" t="s">
+        <v>552</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="J84" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="K84" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="L84" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="O84" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8017,35 +8589,39 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>41255</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>74790</v>
+      </c>
+      <c r="C85" t="s">
+        <v>558</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>482</v>
+        <v>559</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>483</v>
+        <v>560</v>
       </c>
       <c r="J85" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -8053,10 +8629,10 @@
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="O85" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8077,51 +8653,52 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>41255</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>119785</v>
+      </c>
+      <c r="C86" t="s">
+        <v>563</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="J86" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="K86" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="L86" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="O86" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -8145,50 +8722,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>41255</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>119786</v>
+      </c>
+      <c r="C87" t="s">
+        <v>569</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="J87" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="K87" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="L87" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
       <c r="O87" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8212,50 +8793,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>41255</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C88" t="s">
+        <v>576</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="J88" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
       <c r="K88" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="L88" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="O88" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8279,50 +8864,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>41255</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>16694</v>
+      </c>
+      <c r="C89" t="s">
+        <v>583</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="J89" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
       <c r="K89" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
       <c r="L89" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="O89" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8346,50 +8935,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>41255</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>119787</v>
+      </c>
+      <c r="C90" t="s">
+        <v>589</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="J90" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="K90" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="L90" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="O90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="n">
@@ -8409,50 +9002,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>41255</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>119788</v>
+      </c>
+      <c r="C91" t="s">
+        <v>596</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>514</v>
+        <v>597</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>515</v>
+        <v>598</v>
       </c>
       <c r="J91" t="s">
-        <v>516</v>
+        <v>599</v>
       </c>
       <c r="K91" t="s">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="L91" t="s">
-        <v>518</v>
+        <v>601</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="O91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8476,50 +9073,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>519</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>41255</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>119789</v>
+      </c>
+      <c r="C92" t="s">
+        <v>603</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="J92" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="K92" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="L92" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="O92" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8543,50 +9144,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>41255</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>119790</v>
+      </c>
+      <c r="C93" t="s">
+        <v>610</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="J93" t="s">
-        <v>528</v>
+        <v>613</v>
       </c>
       <c r="K93" t="s">
-        <v>529</v>
+        <v>614</v>
       </c>
       <c r="L93" t="s">
-        <v>530</v>
+        <v>615</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="O93" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8610,50 +9215,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>530</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>41255</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>76436</v>
+      </c>
+      <c r="C94" t="s">
+        <v>617</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
       <c r="J94" t="s">
-        <v>534</v>
+        <v>620</v>
       </c>
       <c r="K94" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
       <c r="L94" t="s">
-        <v>536</v>
+        <v>622</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="O94" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8677,50 +9286,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>536</v>
+        <v>622</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>41255</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>119791</v>
+      </c>
+      <c r="C95" t="s">
+        <v>623</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>538</v>
+        <v>625</v>
       </c>
       <c r="J95" t="s">
-        <v>539</v>
+        <v>626</v>
       </c>
       <c r="K95" t="s">
-        <v>540</v>
+        <v>627</v>
       </c>
       <c r="L95" t="s">
-        <v>541</v>
+        <v>628</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="O95" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -8744,50 +9357,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>541</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>41255</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>119792</v>
+      </c>
+      <c r="C96" t="s">
+        <v>629</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>542</v>
+        <v>630</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="J96" t="s">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="K96" t="s">
-        <v>545</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s">
-        <v>546</v>
+        <v>634</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>547</v>
+        <v>635</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -8811,50 +9428,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>546</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>41255</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>119793</v>
+      </c>
+      <c r="C97" t="s">
+        <v>636</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>549</v>
+        <v>638</v>
       </c>
       <c r="J97" t="s">
-        <v>550</v>
+        <v>639</v>
       </c>
       <c r="K97" t="s">
-        <v>551</v>
+        <v>640</v>
       </c>
       <c r="L97" t="s">
-        <v>552</v>
+        <v>641</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>547</v>
+        <v>635</v>
       </c>
       <c r="O97" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8878,50 +9499,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>553</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>41255</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>119794</v>
+      </c>
+      <c r="C98" t="s">
+        <v>643</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>554</v>
+        <v>644</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>555</v>
+        <v>645</v>
       </c>
       <c r="J98" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="K98" t="s">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="L98" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="O98" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -8945,50 +9570,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>41255</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>36449</v>
+      </c>
+      <c r="C99" t="s">
+        <v>650</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>560</v>
+        <v>651</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="J99" t="s">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="K99" t="s">
-        <v>563</v>
+        <v>654</v>
       </c>
       <c r="L99" t="s">
-        <v>564</v>
+        <v>655</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="O99" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -9012,50 +9641,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>564</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>41255</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>119795</v>
+      </c>
+      <c r="C100" t="s">
+        <v>656</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>565</v>
+        <v>657</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>566</v>
+        <v>658</v>
       </c>
       <c r="J100" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
       <c r="K100" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="L100" t="s">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>570</v>
+        <v>662</v>
       </c>
       <c r="O100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9079,50 +9712,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>571</v>
+        <v>663</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>41255</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>9942</v>
+      </c>
+      <c r="C101" t="s">
+        <v>664</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>572</v>
+        <v>665</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>573</v>
+        <v>666</v>
       </c>
       <c r="J101" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
       <c r="K101" t="s">
-        <v>575</v>
+        <v>668</v>
       </c>
       <c r="L101" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>577</v>
+        <v>670</v>
       </c>
       <c r="O101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9146,50 +9783,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>41255</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C102" t="s">
+        <v>671</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>578</v>
+        <v>672</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>579</v>
+        <v>673</v>
       </c>
       <c r="J102" t="s">
-        <v>580</v>
+        <v>674</v>
       </c>
       <c r="K102" t="s">
-        <v>581</v>
+        <v>675</v>
       </c>
       <c r="L102" t="s">
-        <v>582</v>
+        <v>676</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>577</v>
+        <v>670</v>
       </c>
       <c r="O102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9213,50 +9854,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>582</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>41255</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>7948</v>
+      </c>
+      <c r="C103" t="s">
+        <v>677</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>583</v>
+        <v>678</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>584</v>
+        <v>679</v>
       </c>
       <c r="J103" t="s">
-        <v>585</v>
+        <v>680</v>
       </c>
       <c r="K103" t="s">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="L103" t="s">
-        <v>587</v>
+        <v>682</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>577</v>
+        <v>670</v>
       </c>
       <c r="O103" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9280,50 +9925,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>587</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>41255</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>7260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>683</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>588</v>
+        <v>684</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
       <c r="J104" t="s">
-        <v>590</v>
+        <v>686</v>
       </c>
       <c r="K104" t="s">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="L104" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="O104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9347,50 +9996,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>41255</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>119796</v>
+      </c>
+      <c r="C105" t="s">
+        <v>690</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>595</v>
+        <v>692</v>
       </c>
       <c r="J105" t="s">
-        <v>596</v>
+        <v>693</v>
       </c>
       <c r="K105" t="s">
-        <v>597</v>
+        <v>694</v>
       </c>
       <c r="L105" t="s">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>599</v>
+        <v>696</v>
       </c>
       <c r="O105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9414,50 +10067,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>600</v>
+        <v>697</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>41255</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>63289</v>
+      </c>
+      <c r="C106" t="s">
+        <v>698</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>601</v>
+        <v>699</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="J106" t="s">
-        <v>603</v>
+        <v>701</v>
       </c>
       <c r="K106" t="s">
-        <v>604</v>
+        <v>702</v>
       </c>
       <c r="L106" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>606</v>
+        <v>704</v>
       </c>
       <c r="O106" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -9473,50 +10130,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>41255</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>119797</v>
+      </c>
+      <c r="C107" t="s">
+        <v>705</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>607</v>
+        <v>706</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="J107" t="s">
-        <v>609</v>
+        <v>708</v>
       </c>
       <c r="K107" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="L107" t="s">
-        <v>611</v>
+        <v>710</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>612</v>
+        <v>711</v>
       </c>
       <c r="O107" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9540,50 +10201,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>611</v>
+        <v>710</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>41255</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>119798</v>
+      </c>
+      <c r="C108" t="s">
+        <v>712</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>613</v>
+        <v>713</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>614</v>
+        <v>714</v>
       </c>
       <c r="J108" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="K108" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="L108" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>618</v>
+        <v>718</v>
       </c>
       <c r="O108" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -9607,50 +10272,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>619</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>41255</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>119799</v>
+      </c>
+      <c r="C109" t="s">
+        <v>720</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>621</v>
+        <v>722</v>
       </c>
       <c r="J109" t="s">
-        <v>622</v>
+        <v>723</v>
       </c>
       <c r="K109" t="s">
-        <v>623</v>
+        <v>724</v>
       </c>
       <c r="L109" t="s">
-        <v>624</v>
+        <v>725</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>625</v>
+        <v>726</v>
       </c>
       <c r="O109" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -9674,50 +10343,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>624</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>41255</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>119800</v>
+      </c>
+      <c r="C110" t="s">
+        <v>727</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>626</v>
+        <v>728</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>627</v>
+        <v>729</v>
       </c>
       <c r="J110" t="s">
-        <v>628</v>
+        <v>730</v>
       </c>
       <c r="K110" t="s">
-        <v>629</v>
+        <v>731</v>
       </c>
       <c r="L110" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>631</v>
+        <v>733</v>
       </c>
       <c r="O110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9741,50 +10414,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>632</v>
+        <v>734</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>41255</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>119801</v>
+      </c>
+      <c r="C111" t="s">
+        <v>735</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>633</v>
+        <v>736</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>634</v>
+        <v>737</v>
       </c>
       <c r="J111" t="s">
-        <v>635</v>
+        <v>738</v>
       </c>
       <c r="K111" t="s">
-        <v>636</v>
+        <v>739</v>
       </c>
       <c r="L111" t="s">
-        <v>637</v>
+        <v>740</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>638</v>
+        <v>741</v>
       </c>
       <c r="O111" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -9804,50 +10481,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>639</v>
+        <v>742</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>41255</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>119802</v>
+      </c>
+      <c r="C112" t="s">
+        <v>743</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>640</v>
+        <v>744</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>641</v>
+        <v>745</v>
       </c>
       <c r="J112" t="s">
-        <v>642</v>
+        <v>746</v>
       </c>
       <c r="K112" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="L112" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="O112" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -9871,50 +10552,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>41255</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>119803</v>
+      </c>
+      <c r="C113" t="s">
+        <v>750</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>646</v>
+        <v>751</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>647</v>
+        <v>752</v>
       </c>
       <c r="J113" t="s">
-        <v>648</v>
+        <v>753</v>
       </c>
       <c r="K113" t="s">
-        <v>649</v>
+        <v>754</v>
       </c>
       <c r="L113" t="s">
-        <v>650</v>
+        <v>755</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>651</v>
+        <v>756</v>
       </c>
       <c r="O113" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -9938,50 +10623,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>650</v>
+        <v>755</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>41255</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>119804</v>
+      </c>
+      <c r="C114" t="s">
+        <v>757</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>652</v>
+        <v>758</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>653</v>
+        <v>759</v>
       </c>
       <c r="J114" t="s">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="K114" t="s">
-        <v>655</v>
+        <v>761</v>
       </c>
       <c r="L114" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
       <c r="M114" t="n">
         <v>3</v>
       </c>
       <c r="N114" t="s">
-        <v>657</v>
+        <v>763</v>
       </c>
       <c r="O114" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -10003,50 +10692,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>41255</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>17290</v>
+      </c>
+      <c r="C115" t="s">
+        <v>764</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>658</v>
+        <v>765</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>659</v>
+        <v>766</v>
       </c>
       <c r="J115" t="s">
-        <v>660</v>
+        <v>767</v>
       </c>
       <c r="K115" t="s">
-        <v>661</v>
+        <v>768</v>
       </c>
       <c r="L115" t="s">
-        <v>662</v>
+        <v>769</v>
       </c>
       <c r="M115" t="n">
         <v>2</v>
       </c>
       <c r="N115" t="s">
-        <v>663</v>
+        <v>770</v>
       </c>
       <c r="O115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -10070,7 +10763,7 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>664</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
